--- a/config_3.23/shoping_config_xiaomi.xlsx
+++ b/config_3.23/shoping_config_xiaomi.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_3.16\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_3.23\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -9484,7 +9484,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -9686,11 +9686,14 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -12185,10 +12188,10 @@
   <dimension ref="A1:AN586"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="Q560" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="H521" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q590" sqref="Q590"/>
+      <selection pane="bottomRight" activeCell="A542" sqref="A542"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -46852,458 +46855,458 @@
         <v>1</v>
       </c>
     </row>
-    <row r="542" spans="1:39" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A542" s="5">
+    <row r="542" spans="1:39" s="22" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A542" s="22">
         <v>541</v>
       </c>
-      <c r="B542" s="5">
+      <c r="B542" s="22">
         <v>10458</v>
       </c>
-      <c r="F542" s="5">
-        <v>0</v>
-      </c>
-      <c r="G542" s="5" t="s">
+      <c r="F542" s="22">
+        <v>1</v>
+      </c>
+      <c r="G542" s="22" t="s">
         <v>2044</v>
       </c>
-      <c r="I542" s="5" t="s">
+      <c r="I542" s="22" t="s">
         <v>2046</v>
       </c>
-      <c r="J542" s="5" t="s">
+      <c r="J542" s="22" t="s">
         <v>2047</v>
       </c>
-      <c r="L542" s="5">
+      <c r="L542" s="22">
         <v>-31</v>
       </c>
-      <c r="M542" s="5">
-        <v>0</v>
-      </c>
-      <c r="N542" s="5">
-        <v>0</v>
-      </c>
-      <c r="O542" s="5" t="s">
+      <c r="M542" s="22">
+        <v>0</v>
+      </c>
+      <c r="N542" s="22">
+        <v>0</v>
+      </c>
+      <c r="O542" s="22" t="s">
         <v>481</v>
       </c>
-      <c r="P542" s="5">
+      <c r="P542" s="22">
         <v>99800</v>
       </c>
-      <c r="Q542" s="5" t="s">
+      <c r="Q542" s="22" t="s">
         <v>2048</v>
       </c>
-      <c r="R542" s="10" t="s">
+      <c r="R542" s="65" t="s">
         <v>1487</v>
       </c>
-      <c r="W542" s="5" t="s">
+      <c r="W542" s="22" t="s">
         <v>2049</v>
       </c>
-      <c r="X542" s="5">
+      <c r="X542" s="22">
         <v>9999999</v>
       </c>
-      <c r="Y542" s="11">
-        <v>1614038400</v>
-      </c>
-      <c r="Z542" s="11">
-        <v>1614614399</v>
-      </c>
-      <c r="AH542" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI542" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL542" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM542" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="543" spans="1:39" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A543" s="5">
+      <c r="Y542" s="69">
+        <v>1616457600</v>
+      </c>
+      <c r="Z542" s="69">
+        <v>1617033599</v>
+      </c>
+      <c r="AH542" s="22">
+        <v>1</v>
+      </c>
+      <c r="AI542" s="22">
+        <v>1</v>
+      </c>
+      <c r="AL542" s="22">
+        <v>1</v>
+      </c>
+      <c r="AM542" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="543" spans="1:39" s="22" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A543" s="22">
         <v>542</v>
       </c>
-      <c r="B543" s="5">
+      <c r="B543" s="22">
         <v>10459</v>
       </c>
-      <c r="F543" s="5">
-        <v>0</v>
-      </c>
-      <c r="G543" s="5" t="s">
+      <c r="F543" s="22">
+        <v>1</v>
+      </c>
+      <c r="G543" s="22" t="s">
         <v>2050</v>
       </c>
-      <c r="I543" s="5" t="s">
+      <c r="I543" s="22" t="s">
         <v>2046</v>
       </c>
-      <c r="J543" s="5" t="s">
+      <c r="J543" s="22" t="s">
         <v>2051</v>
       </c>
-      <c r="L543" s="5">
+      <c r="L543" s="22">
         <v>-31</v>
       </c>
-      <c r="M543" s="5">
-        <v>0</v>
-      </c>
-      <c r="N543" s="5">
-        <v>0</v>
-      </c>
-      <c r="O543" s="5" t="s">
+      <c r="M543" s="22">
+        <v>0</v>
+      </c>
+      <c r="N543" s="22">
+        <v>0</v>
+      </c>
+      <c r="O543" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="P543" s="5">
+      <c r="P543" s="22">
         <v>49800</v>
       </c>
-      <c r="Q543" s="5" t="s">
+      <c r="Q543" s="22" t="s">
         <v>2048</v>
       </c>
-      <c r="R543" s="10" t="s">
+      <c r="R543" s="65" t="s">
         <v>2052</v>
       </c>
-      <c r="W543" s="5" t="s">
+      <c r="W543" s="22" t="s">
         <v>527</v>
       </c>
-      <c r="X543" s="5">
+      <c r="X543" s="22">
         <v>9999999</v>
       </c>
-      <c r="Y543" s="11">
-        <v>1614038400</v>
-      </c>
-      <c r="Z543" s="11">
-        <v>1614614399</v>
-      </c>
-      <c r="AH543" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI543" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL543" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM543" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="544" spans="1:39" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A544" s="5">
+      <c r="Y543" s="69">
+        <v>1616457600</v>
+      </c>
+      <c r="Z543" s="69">
+        <v>1617033599</v>
+      </c>
+      <c r="AH543" s="22">
+        <v>1</v>
+      </c>
+      <c r="AI543" s="22">
+        <v>1</v>
+      </c>
+      <c r="AL543" s="22">
+        <v>1</v>
+      </c>
+      <c r="AM543" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="544" spans="1:39" s="22" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A544" s="22">
         <v>543</v>
       </c>
-      <c r="B544" s="5">
+      <c r="B544" s="22">
         <v>10460</v>
       </c>
-      <c r="F544" s="5">
-        <v>0</v>
-      </c>
-      <c r="G544" s="5" t="s">
+      <c r="F544" s="22">
+        <v>1</v>
+      </c>
+      <c r="G544" s="22" t="s">
         <v>2053</v>
       </c>
-      <c r="I544" s="5" t="s">
+      <c r="I544" s="22" t="s">
         <v>2045</v>
       </c>
-      <c r="J544" s="5" t="s">
+      <c r="J544" s="22" t="s">
         <v>2054</v>
       </c>
-      <c r="L544" s="5">
+      <c r="L544" s="22">
         <v>-31</v>
       </c>
-      <c r="M544" s="5">
-        <v>0</v>
-      </c>
-      <c r="N544" s="5">
-        <v>0</v>
-      </c>
-      <c r="O544" s="5" t="s">
+      <c r="M544" s="22">
+        <v>0</v>
+      </c>
+      <c r="N544" s="22">
+        <v>0</v>
+      </c>
+      <c r="O544" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="P544" s="5">
+      <c r="P544" s="22">
         <v>29800</v>
       </c>
-      <c r="Q544" s="5" t="s">
+      <c r="Q544" s="22" t="s">
         <v>2055</v>
       </c>
-      <c r="R544" s="10" t="s">
+      <c r="R544" s="65" t="s">
         <v>2056</v>
       </c>
-      <c r="W544" s="5" t="s">
+      <c r="W544" s="22" t="s">
         <v>527</v>
       </c>
-      <c r="X544" s="5">
+      <c r="X544" s="22">
         <v>9999999</v>
       </c>
-      <c r="Y544" s="11">
-        <v>1614038400</v>
-      </c>
-      <c r="Z544" s="11">
-        <v>1614614399</v>
-      </c>
-      <c r="AH544" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI544" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL544" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM544" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="545" spans="1:39" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A545" s="5">
+      <c r="Y544" s="69">
+        <v>1616457600</v>
+      </c>
+      <c r="Z544" s="69">
+        <v>1617033599</v>
+      </c>
+      <c r="AH544" s="22">
+        <v>1</v>
+      </c>
+      <c r="AI544" s="22">
+        <v>1</v>
+      </c>
+      <c r="AL544" s="22">
+        <v>1</v>
+      </c>
+      <c r="AM544" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="545" spans="1:39" s="22" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A545" s="22">
         <v>544</v>
       </c>
-      <c r="B545" s="5">
+      <c r="B545" s="22">
         <v>10461</v>
       </c>
-      <c r="F545" s="5">
-        <v>0</v>
-      </c>
-      <c r="G545" s="5" t="s">
+      <c r="F545" s="22">
+        <v>1</v>
+      </c>
+      <c r="G545" s="22" t="s">
         <v>2057</v>
       </c>
-      <c r="I545" s="5" t="s">
+      <c r="I545" s="22" t="s">
         <v>2046</v>
       </c>
-      <c r="J545" s="5" t="s">
+      <c r="J545" s="22" t="s">
         <v>2058</v>
       </c>
-      <c r="L545" s="5">
+      <c r="L545" s="22">
         <v>-31</v>
       </c>
-      <c r="M545" s="5">
-        <v>0</v>
-      </c>
-      <c r="N545" s="5">
-        <v>0</v>
-      </c>
-      <c r="O545" s="5" t="s">
+      <c r="M545" s="22">
+        <v>0</v>
+      </c>
+      <c r="N545" s="22">
+        <v>0</v>
+      </c>
+      <c r="O545" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="P545" s="5">
+      <c r="P545" s="22">
         <v>19800</v>
       </c>
-      <c r="Q545" s="5" t="s">
+      <c r="Q545" s="22" t="s">
         <v>2055</v>
       </c>
-      <c r="R545" s="10" t="s">
+      <c r="R545" s="65" t="s">
         <v>1344</v>
       </c>
-      <c r="W545" s="5" t="s">
+      <c r="W545" s="22" t="s">
         <v>527</v>
       </c>
-      <c r="X545" s="5">
+      <c r="X545" s="22">
         <v>9999999</v>
       </c>
-      <c r="Y545" s="11">
-        <v>1614038400</v>
-      </c>
-      <c r="Z545" s="11">
-        <v>1614614399</v>
-      </c>
-      <c r="AH545" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI545" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL545" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM545" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="546" spans="1:39" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A546" s="5">
+      <c r="Y545" s="69">
+        <v>1616457600</v>
+      </c>
+      <c r="Z545" s="69">
+        <v>1617033599</v>
+      </c>
+      <c r="AH545" s="22">
+        <v>1</v>
+      </c>
+      <c r="AI545" s="22">
+        <v>1</v>
+      </c>
+      <c r="AL545" s="22">
+        <v>1</v>
+      </c>
+      <c r="AM545" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="546" spans="1:39" s="22" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A546" s="22">
         <v>545</v>
       </c>
-      <c r="B546" s="5">
+      <c r="B546" s="22">
         <v>10462</v>
       </c>
-      <c r="F546" s="5">
-        <v>0</v>
-      </c>
-      <c r="G546" s="5" t="s">
+      <c r="F546" s="22">
+        <v>1</v>
+      </c>
+      <c r="G546" s="22" t="s">
         <v>2059</v>
       </c>
-      <c r="I546" s="5" t="s">
+      <c r="I546" s="22" t="s">
         <v>2046</v>
       </c>
-      <c r="J546" s="5" t="s">
+      <c r="J546" s="22" t="s">
         <v>2060</v>
       </c>
-      <c r="L546" s="5">
+      <c r="L546" s="22">
         <v>-31</v>
       </c>
-      <c r="M546" s="5">
-        <v>0</v>
-      </c>
-      <c r="N546" s="5">
-        <v>0</v>
-      </c>
-      <c r="O546" s="5" t="s">
+      <c r="M546" s="22">
+        <v>0</v>
+      </c>
+      <c r="N546" s="22">
+        <v>0</v>
+      </c>
+      <c r="O546" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="P546" s="5">
+      <c r="P546" s="22">
         <v>9800</v>
       </c>
-      <c r="Q546" s="5" t="s">
+      <c r="Q546" s="22" t="s">
         <v>1471</v>
       </c>
-      <c r="R546" s="10" t="s">
+      <c r="R546" s="65" t="s">
         <v>2061</v>
       </c>
-      <c r="W546" s="5" t="s">
+      <c r="W546" s="22" t="s">
         <v>527</v>
       </c>
-      <c r="X546" s="5">
+      <c r="X546" s="22">
         <v>9999999</v>
       </c>
-      <c r="Y546" s="11">
-        <v>1614038400</v>
-      </c>
-      <c r="Z546" s="11">
-        <v>1614614399</v>
-      </c>
-      <c r="AH546" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI546" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL546" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM546" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="547" spans="1:39" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A547" s="5">
+      <c r="Y546" s="69">
+        <v>1616457600</v>
+      </c>
+      <c r="Z546" s="69">
+        <v>1617033599</v>
+      </c>
+      <c r="AH546" s="22">
+        <v>1</v>
+      </c>
+      <c r="AI546" s="22">
+        <v>1</v>
+      </c>
+      <c r="AL546" s="22">
+        <v>1</v>
+      </c>
+      <c r="AM546" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="547" spans="1:39" s="22" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A547" s="22">
         <v>546</v>
       </c>
-      <c r="B547" s="5">
+      <c r="B547" s="22">
         <v>10463</v>
       </c>
-      <c r="F547" s="5">
-        <v>0</v>
-      </c>
-      <c r="G547" s="5" t="s">
+      <c r="F547" s="22">
+        <v>1</v>
+      </c>
+      <c r="G547" s="22" t="s">
         <v>2062</v>
       </c>
-      <c r="I547" s="5" t="s">
+      <c r="I547" s="22" t="s">
         <v>2046</v>
       </c>
-      <c r="J547" s="5" t="s">
+      <c r="J547" s="22" t="s">
         <v>2063</v>
       </c>
-      <c r="L547" s="5">
+      <c r="L547" s="22">
         <v>-31</v>
       </c>
-      <c r="M547" s="5">
-        <v>0</v>
-      </c>
-      <c r="N547" s="5">
-        <v>0</v>
-      </c>
-      <c r="O547" s="5" t="s">
+      <c r="M547" s="22">
+        <v>0</v>
+      </c>
+      <c r="N547" s="22">
+        <v>0</v>
+      </c>
+      <c r="O547" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="P547" s="5">
+      <c r="P547" s="22">
         <v>4800</v>
       </c>
-      <c r="Q547" s="5" t="s">
+      <c r="Q547" s="22" t="s">
         <v>2064</v>
       </c>
-      <c r="R547" s="10" t="s">
+      <c r="R547" s="65" t="s">
         <v>2065</v>
       </c>
-      <c r="W547" s="5" t="s">
+      <c r="W547" s="22" t="s">
         <v>527</v>
       </c>
-      <c r="X547" s="5">
+      <c r="X547" s="22">
         <v>9999999</v>
       </c>
-      <c r="Y547" s="11">
-        <v>1614038400</v>
-      </c>
-      <c r="Z547" s="11">
-        <v>1614614399</v>
-      </c>
-      <c r="AH547" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI547" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL547" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM547" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="548" spans="1:39" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A548" s="5">
+      <c r="Y547" s="69">
+        <v>1616457600</v>
+      </c>
+      <c r="Z547" s="69">
+        <v>1617033599</v>
+      </c>
+      <c r="AH547" s="22">
+        <v>1</v>
+      </c>
+      <c r="AI547" s="22">
+        <v>1</v>
+      </c>
+      <c r="AL547" s="22">
+        <v>1</v>
+      </c>
+      <c r="AM547" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="548" spans="1:39" s="22" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A548" s="22">
         <v>547</v>
       </c>
-      <c r="B548" s="5">
+      <c r="B548" s="22">
         <v>10464</v>
       </c>
-      <c r="F548" s="5">
-        <v>0</v>
-      </c>
-      <c r="G548" s="5" t="s">
+      <c r="F548" s="22">
+        <v>1</v>
+      </c>
+      <c r="G548" s="22" t="s">
         <v>2066</v>
       </c>
-      <c r="I548" s="5" t="s">
+      <c r="I548" s="22" t="s">
         <v>2046</v>
       </c>
-      <c r="J548" s="5" t="s">
+      <c r="J548" s="22" t="s">
         <v>2067</v>
       </c>
-      <c r="L548" s="5">
+      <c r="L548" s="22">
         <v>-31</v>
       </c>
-      <c r="M548" s="5">
-        <v>0</v>
-      </c>
-      <c r="N548" s="5">
-        <v>0</v>
-      </c>
-      <c r="O548" s="5" t="s">
+      <c r="M548" s="22">
+        <v>0</v>
+      </c>
+      <c r="N548" s="22">
+        <v>0</v>
+      </c>
+      <c r="O548" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="P548" s="5">
+      <c r="P548" s="22">
         <v>1800</v>
       </c>
-      <c r="Q548" s="5" t="s">
+      <c r="Q548" s="22" t="s">
         <v>2064</v>
       </c>
-      <c r="R548" s="10" t="s">
+      <c r="R548" s="65" t="s">
         <v>2068</v>
       </c>
-      <c r="W548" s="5" t="s">
+      <c r="W548" s="22" t="s">
         <v>527</v>
       </c>
-      <c r="X548" s="5">
+      <c r="X548" s="22">
         <v>9999999</v>
       </c>
-      <c r="Y548" s="11">
-        <v>1614038400</v>
-      </c>
-      <c r="Z548" s="11">
-        <v>1614614399</v>
-      </c>
-      <c r="AH548" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI548" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL548" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM548" s="5">
+      <c r="Y548" s="69">
+        <v>1616457600</v>
+      </c>
+      <c r="Z548" s="69">
+        <v>1617033599</v>
+      </c>
+      <c r="AH548" s="22">
+        <v>1</v>
+      </c>
+      <c r="AI548" s="22">
+        <v>1</v>
+      </c>
+      <c r="AL548" s="22">
+        <v>1</v>
+      </c>
+      <c r="AM548" s="22">
         <v>1</v>
       </c>
     </row>
@@ -49023,7 +49026,7 @@
       <c r="Q574" s="5" t="s">
         <v>2143</v>
       </c>
-      <c r="R574" s="68" t="s">
+      <c r="R574" s="67" t="s">
         <v>2144</v>
       </c>
       <c r="W574" s="5" t="s">
@@ -49085,7 +49088,7 @@
       <c r="Q575" s="5" t="s">
         <v>2150</v>
       </c>
-      <c r="R575" s="68" t="s">
+      <c r="R575" s="67" t="s">
         <v>2151</v>
       </c>
       <c r="W575" s="5" t="s">
@@ -49147,7 +49150,7 @@
       <c r="Q576" s="5" t="s">
         <v>2155</v>
       </c>
-      <c r="R576" s="68" t="s">
+      <c r="R576" s="67" t="s">
         <v>2156</v>
       </c>
       <c r="W576" s="5" t="s">
@@ -49209,7 +49212,7 @@
       <c r="Q577" s="5" t="s">
         <v>2159</v>
       </c>
-      <c r="R577" s="68" t="s">
+      <c r="R577" s="67" t="s">
         <v>2160</v>
       </c>
       <c r="W577" s="5" t="s">
@@ -49271,7 +49274,7 @@
       <c r="Q578" s="5" t="s">
         <v>2163</v>
       </c>
-      <c r="R578" s="68" t="s">
+      <c r="R578" s="67" t="s">
         <v>2164</v>
       </c>
       <c r="W578" s="5" t="s">
@@ -49333,7 +49336,7 @@
       <c r="Q579" s="5" t="s">
         <v>2167</v>
       </c>
-      <c r="R579" s="68" t="s">
+      <c r="R579" s="67" t="s">
         <v>2168</v>
       </c>
       <c r="W579" s="5" t="s">
@@ -49420,393 +49423,393 @@
         <v>1</v>
       </c>
     </row>
-    <row r="581" spans="1:39" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A581" s="22">
+    <row r="581" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A581" s="5">
         <v>580</v>
       </c>
-      <c r="B581" s="22">
+      <c r="B581" s="5">
         <v>10497</v>
       </c>
-      <c r="F581" s="22">
-        <v>1</v>
-      </c>
-      <c r="G581" s="22" t="s">
+      <c r="F581" s="5">
+        <v>0</v>
+      </c>
+      <c r="G581" s="5" t="s">
         <v>2179</v>
       </c>
-      <c r="I581" s="22" t="s">
+      <c r="I581" s="5" t="s">
         <v>2180</v>
       </c>
-      <c r="J581" s="22" t="s">
+      <c r="J581" s="5" t="s">
         <v>2181</v>
       </c>
-      <c r="L581" s="22">
+      <c r="L581" s="5">
         <v>-31</v>
       </c>
-      <c r="M581" s="22">
-        <v>0</v>
-      </c>
-      <c r="N581" s="22">
-        <v>0</v>
-      </c>
-      <c r="O581" s="22" t="s">
+      <c r="M581" s="5">
+        <v>0</v>
+      </c>
+      <c r="N581" s="5">
+        <v>0</v>
+      </c>
+      <c r="O581" s="5" t="s">
         <v>481</v>
       </c>
-      <c r="P581" s="22">
+      <c r="P581" s="5">
         <v>49800</v>
       </c>
-      <c r="Q581" s="22" t="s">
+      <c r="Q581" s="5" t="s">
         <v>2193</v>
       </c>
-      <c r="R581" s="67" t="s">
+      <c r="R581" s="68" t="s">
         <v>2194</v>
       </c>
-      <c r="W581" s="22" t="s">
+      <c r="W581" s="5" t="s">
         <v>2182</v>
       </c>
-      <c r="X581" s="22">
+      <c r="X581" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y581" s="22">
+      <c r="Y581" s="5">
         <v>1615852800</v>
       </c>
-      <c r="Z581" s="22">
+      <c r="Z581" s="5">
         <v>1616428799</v>
       </c>
-      <c r="AH581" s="22">
-        <v>1</v>
-      </c>
-      <c r="AI581" s="22">
-        <v>1</v>
-      </c>
-      <c r="AL581" s="22">
-        <v>1</v>
-      </c>
-      <c r="AM581" s="22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="582" spans="1:39" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A582" s="22">
+      <c r="AH581" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI581" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL581" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM581" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="582" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A582" s="5">
         <v>581</v>
       </c>
-      <c r="B582" s="22">
+      <c r="B582" s="5">
         <v>10498</v>
       </c>
-      <c r="F582" s="22">
-        <v>1</v>
-      </c>
-      <c r="G582" s="22" t="s">
+      <c r="F582" s="5">
+        <v>0</v>
+      </c>
+      <c r="G582" s="5" t="s">
         <v>2179</v>
       </c>
-      <c r="I582" s="22" t="s">
+      <c r="I582" s="5" t="s">
         <v>2183</v>
       </c>
-      <c r="J582" s="22" t="s">
+      <c r="J582" s="5" t="s">
         <v>2184</v>
       </c>
-      <c r="L582" s="22">
+      <c r="L582" s="5">
         <v>-31</v>
       </c>
-      <c r="M582" s="22">
-        <v>0</v>
-      </c>
-      <c r="N582" s="22">
-        <v>0</v>
-      </c>
-      <c r="O582" s="22" t="s">
+      <c r="M582" s="5">
+        <v>0</v>
+      </c>
+      <c r="N582" s="5">
+        <v>0</v>
+      </c>
+      <c r="O582" s="5" t="s">
         <v>481</v>
       </c>
-      <c r="P582" s="22">
+      <c r="P582" s="5">
         <v>19800</v>
       </c>
-      <c r="Q582" s="22" t="s">
+      <c r="Q582" s="5" t="s">
         <v>2193</v>
       </c>
-      <c r="R582" s="67" t="s">
+      <c r="R582" s="68" t="s">
         <v>2195</v>
       </c>
-      <c r="W582" s="22" t="s">
+      <c r="W582" s="5" t="s">
         <v>2182</v>
       </c>
-      <c r="X582" s="22">
+      <c r="X582" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y582" s="22">
+      <c r="Y582" s="5">
         <v>1615852800</v>
       </c>
-      <c r="Z582" s="22">
+      <c r="Z582" s="5">
         <v>1616428799</v>
       </c>
-      <c r="AH582" s="22">
-        <v>1</v>
-      </c>
-      <c r="AI582" s="22">
-        <v>1</v>
-      </c>
-      <c r="AL582" s="22">
-        <v>1</v>
-      </c>
-      <c r="AM582" s="22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="583" spans="1:39" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A583" s="22">
+      <c r="AH582" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI582" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL582" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM582" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="583" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A583" s="5">
         <v>582</v>
       </c>
-      <c r="B583" s="22">
+      <c r="B583" s="5">
         <v>10499</v>
       </c>
-      <c r="F583" s="22">
-        <v>1</v>
-      </c>
-      <c r="G583" s="22" t="s">
+      <c r="F583" s="5">
+        <v>0</v>
+      </c>
+      <c r="G583" s="5" t="s">
         <v>2179</v>
       </c>
-      <c r="I583" s="22" t="s">
+      <c r="I583" s="5" t="s">
         <v>2185</v>
       </c>
-      <c r="J583" s="22" t="s">
+      <c r="J583" s="5" t="s">
         <v>2186</v>
       </c>
-      <c r="L583" s="22">
+      <c r="L583" s="5">
         <v>-31</v>
       </c>
-      <c r="M583" s="22">
-        <v>0</v>
-      </c>
-      <c r="N583" s="22">
-        <v>0</v>
-      </c>
-      <c r="O583" s="22" t="s">
+      <c r="M583" s="5">
+        <v>0</v>
+      </c>
+      <c r="N583" s="5">
+        <v>0</v>
+      </c>
+      <c r="O583" s="5" t="s">
         <v>481</v>
       </c>
-      <c r="P583" s="22">
+      <c r="P583" s="5">
         <v>9800</v>
       </c>
-      <c r="Q583" s="22" t="s">
+      <c r="Q583" s="5" t="s">
         <v>2193</v>
       </c>
-      <c r="R583" s="67" t="s">
+      <c r="R583" s="68" t="s">
         <v>2196</v>
       </c>
-      <c r="W583" s="22" t="s">
+      <c r="W583" s="5" t="s">
         <v>2182</v>
       </c>
-      <c r="X583" s="22">
+      <c r="X583" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y583" s="22">
+      <c r="Y583" s="5">
         <v>1615852800</v>
       </c>
-      <c r="Z583" s="22">
+      <c r="Z583" s="5">
         <v>1616428799</v>
       </c>
-      <c r="AH583" s="22">
-        <v>1</v>
-      </c>
-      <c r="AI583" s="22">
-        <v>1</v>
-      </c>
-      <c r="AL583" s="22">
-        <v>1</v>
-      </c>
-      <c r="AM583" s="22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="584" spans="1:39" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A584" s="22">
+      <c r="AH583" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI583" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL583" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM583" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="584" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A584" s="5">
         <v>583</v>
       </c>
-      <c r="B584" s="22">
+      <c r="B584" s="5">
         <v>10500</v>
       </c>
-      <c r="F584" s="22">
-        <v>1</v>
-      </c>
-      <c r="G584" s="22" t="s">
+      <c r="F584" s="5">
+        <v>0</v>
+      </c>
+      <c r="G584" s="5" t="s">
         <v>2179</v>
       </c>
-      <c r="I584" s="22" t="s">
+      <c r="I584" s="5" t="s">
         <v>2187</v>
       </c>
-      <c r="J584" s="22" t="s">
+      <c r="J584" s="5" t="s">
         <v>2188</v>
       </c>
-      <c r="L584" s="22">
+      <c r="L584" s="5">
         <v>-31</v>
       </c>
-      <c r="M584" s="22">
-        <v>0</v>
-      </c>
-      <c r="N584" s="22">
-        <v>0</v>
-      </c>
-      <c r="O584" s="22" t="s">
+      <c r="M584" s="5">
+        <v>0</v>
+      </c>
+      <c r="N584" s="5">
+        <v>0</v>
+      </c>
+      <c r="O584" s="5" t="s">
         <v>481</v>
       </c>
-      <c r="P584" s="22">
+      <c r="P584" s="5">
         <v>4800</v>
       </c>
-      <c r="Q584" s="22" t="s">
+      <c r="Q584" s="5" t="s">
         <v>2193</v>
       </c>
-      <c r="R584" s="67" t="s">
+      <c r="R584" s="68" t="s">
         <v>2197</v>
       </c>
-      <c r="W584" s="22" t="s">
+      <c r="W584" s="5" t="s">
         <v>2182</v>
       </c>
-      <c r="X584" s="22">
+      <c r="X584" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y584" s="22">
+      <c r="Y584" s="5">
         <v>1615852800</v>
       </c>
-      <c r="Z584" s="22">
+      <c r="Z584" s="5">
         <v>1616428799</v>
       </c>
-      <c r="AH584" s="22">
-        <v>1</v>
-      </c>
-      <c r="AI584" s="22">
-        <v>1</v>
-      </c>
-      <c r="AL584" s="22">
-        <v>1</v>
-      </c>
-      <c r="AM584" s="22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="585" spans="1:39" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A585" s="22">
+      <c r="AH584" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI584" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL584" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM584" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="585" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A585" s="5">
         <v>584</v>
       </c>
-      <c r="B585" s="22">
+      <c r="B585" s="5">
         <v>10501</v>
       </c>
-      <c r="F585" s="22">
-        <v>1</v>
-      </c>
-      <c r="G585" s="22" t="s">
+      <c r="F585" s="5">
+        <v>0</v>
+      </c>
+      <c r="G585" s="5" t="s">
         <v>2179</v>
       </c>
-      <c r="I585" s="22" t="s">
+      <c r="I585" s="5" t="s">
         <v>2189</v>
       </c>
-      <c r="J585" s="22" t="s">
+      <c r="J585" s="5" t="s">
         <v>2190</v>
       </c>
-      <c r="L585" s="22">
+      <c r="L585" s="5">
         <v>-31</v>
       </c>
-      <c r="M585" s="22">
-        <v>0</v>
-      </c>
-      <c r="N585" s="22">
-        <v>0</v>
-      </c>
-      <c r="O585" s="22" t="s">
+      <c r="M585" s="5">
+        <v>0</v>
+      </c>
+      <c r="N585" s="5">
+        <v>0</v>
+      </c>
+      <c r="O585" s="5" t="s">
         <v>481</v>
       </c>
-      <c r="P585" s="22">
+      <c r="P585" s="5">
         <v>2000</v>
       </c>
-      <c r="Q585" s="22" t="s">
+      <c r="Q585" s="5" t="s">
         <v>2198</v>
       </c>
-      <c r="R585" s="67" t="s">
+      <c r="R585" s="68" t="s">
         <v>2199</v>
       </c>
-      <c r="W585" s="22" t="s">
+      <c r="W585" s="5" t="s">
         <v>2182</v>
       </c>
-      <c r="X585" s="22">
+      <c r="X585" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y585" s="22">
+      <c r="Y585" s="5">
         <v>1615852800</v>
       </c>
-      <c r="Z585" s="22">
+      <c r="Z585" s="5">
         <v>1616428799</v>
       </c>
-      <c r="AH585" s="22">
-        <v>1</v>
-      </c>
-      <c r="AI585" s="22">
-        <v>1</v>
-      </c>
-      <c r="AL585" s="22">
-        <v>1</v>
-      </c>
-      <c r="AM585" s="22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="586" spans="1:39" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A586" s="22">
+      <c r="AH585" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI585" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL585" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM585" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="586" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A586" s="5">
         <v>585</v>
       </c>
-      <c r="B586" s="22">
+      <c r="B586" s="5">
         <v>10502</v>
       </c>
-      <c r="F586" s="22">
-        <v>1</v>
-      </c>
-      <c r="G586" s="22" t="s">
+      <c r="F586" s="5">
+        <v>0</v>
+      </c>
+      <c r="G586" s="5" t="s">
         <v>2179</v>
       </c>
-      <c r="I586" s="22" t="s">
+      <c r="I586" s="5" t="s">
         <v>2191</v>
       </c>
-      <c r="J586" s="22" t="s">
+      <c r="J586" s="5" t="s">
         <v>2192</v>
       </c>
-      <c r="L586" s="22">
+      <c r="L586" s="5">
         <v>-31</v>
       </c>
-      <c r="M586" s="22">
-        <v>0</v>
-      </c>
-      <c r="N586" s="22">
-        <v>0</v>
-      </c>
-      <c r="O586" s="22" t="s">
+      <c r="M586" s="5">
+        <v>0</v>
+      </c>
+      <c r="N586" s="5">
+        <v>0</v>
+      </c>
+      <c r="O586" s="5" t="s">
         <v>481</v>
       </c>
-      <c r="P586" s="22">
+      <c r="P586" s="5">
         <v>600</v>
       </c>
-      <c r="Q586" s="22" t="s">
+      <c r="Q586" s="5" t="s">
         <v>2198</v>
       </c>
-      <c r="R586" s="67" t="s">
+      <c r="R586" s="68" t="s">
         <v>2200</v>
       </c>
-      <c r="W586" s="22" t="s">
+      <c r="W586" s="5" t="s">
         <v>2182</v>
       </c>
-      <c r="X586" s="22">
+      <c r="X586" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y586" s="22">
+      <c r="Y586" s="5">
         <v>1615852800</v>
       </c>
-      <c r="Z586" s="22">
+      <c r="Z586" s="5">
         <v>1616428799</v>
       </c>
-      <c r="AH586" s="22">
-        <v>1</v>
-      </c>
-      <c r="AI586" s="22">
-        <v>1</v>
-      </c>
-      <c r="AL586" s="22">
-        <v>1</v>
-      </c>
-      <c r="AM586" s="22">
+      <c r="AH586" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI586" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL586" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM586" s="5">
         <v>1</v>
       </c>
     </row>
